--- a/excel/hapjeong.xlsx
+++ b/excel/hapjeong.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>655</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,37 +510,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>남자식탁</t>
+          <t>쿠바포차 하바나24시</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
+          <t>서울 마포구 월드컵로1길 11 2층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 23:00', '22:00 라스트오더'], ['화', '17:30 - 23:00', '22:00 라스트오더'], ['수', '17:30 - 23:00', '22:00 라스트오더'], ['목', '17:30 - 23:00', '22:00 라스트오더'], ['금', '17:30 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:40 라스트오더'], ['화', '16:00 - 02:00', '01:40 라스트오더'], ['수', '16:00 - 02:00', '01:40 라스트오더'], ['목', '16:00 - 02:00', '01:40 라스트오더'], ['금', '16:00 - 02:00', '01:40 라스트오더'], ['토', '16:00 - 02:00', '01:40 라스트오더'], ['- 일요일 예약 시 영업 가능']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0507-1324-3035</t>
+          <t>0507-1333-7118</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
+          <t>[['영업 종료', '16:10에 영업 시작', '16시 10분에 영업 시작'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:20에 라스트오더', '1시 20분에 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], [''], [''], ['휴무일', '07/24']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], [''], ['- 음식 라스트 오더 영업종료 한시간 전 까지 입니다.']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1287,12 +1287,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>히게쯔라</t>
+          <t>바람잔</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1307,54 +1307,54 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 42 1층</t>
+          <t>서울 마포구 월드컵로1길 40 바람잔</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0507-1317-4883</t>
+          <t>0507-1397-0113</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>주문합정</t>
+          <t>바우리</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>285</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로 27-1 성우맨션 1.5층</t>
+          <t>서울 마포구 토정로3길 17 지하</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>010-8286-2494</t>
+          <t>0507-1319-0813</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무', '펼쳐보기'], [''], [''], ['휴무일', '07/23-07/24']]</t>
+          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월(7/24)', '휴무'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], [''], ['- 매달 휴무일이 다릅니다! 일정을 확인하고 방문해주세요!']]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '20:00 - 04:00'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2508,37 +2508,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>남자식탁</t>
+          <t>쿠바포차 하바나24시</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
+          <t>서울 마포구 월드컵로1길 11 2층</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 23:00', '22:00 라스트오더'], ['화', '17:30 - 23:00', '22:00 라스트오더'], ['수', '17:30 - 23:00', '22:00 라스트오더'], ['목', '17:30 - 23:00', '22:00 라스트오더'], ['금', '17:30 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:40 라스트오더'], ['화', '16:00 - 02:00', '01:40 라스트오더'], ['수', '16:00 - 02:00', '01:40 라스트오더'], ['목', '16:00 - 02:00', '01:40 라스트오더'], ['금', '16:00 - 02:00', '01:40 라스트오더'], ['토', '16:00 - 02:00', '01:40 라스트오더'], ['- 일요일 예약 시 영업 가능']]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0507-1324-3035</t>
+          <t>0507-1333-7118</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2555,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
+          <t>[['영업 종료', '16:10에 영업 시작', '16시 10분에 영업 시작'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:20에 라스트오더', '1시 20분에 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], [''], [''], ['휴무일', '07/24']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], [''], ['- 음식 라스트 오더 영업종료 한시간 전 까지 입니다.']]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:00 - 02:00'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3285,12 +3285,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>히게쯔라</t>
+          <t>바람잔</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3305,54 +3305,54 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 42 1층</t>
+          <t>서울 마포구 월드컵로1길 40 바람잔</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0507-1317-4883</t>
+          <t>0507-1397-0113</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>주문합정</t>
+          <t>바우리</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>285</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로 27-1 성우맨션 1.5층</t>
+          <t>서울 마포구 토정로3길 17 지하</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>010-8286-2494</t>
+          <t>0507-1319-0813</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '11:30 - 04:00'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '14:00 - 06:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '14:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
+          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '20:00 - 04:00'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>628</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">

--- a/excel/hapjeong.xlsx
+++ b/excel/hapjeong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,49 +473,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>컴피</t>
+          <t>펍프리바다727</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 32 2층</t>
+          <t>서울 마포구 양화로6길 38 3F</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 23:30', '23:00 라스트오더'], ['월', '18:00 - 00:30', '00:00 라스트오더'], ['화', '18:00 - 00:30', '00:00 라스트오더'], ['수', '18:00 - 00:30', '00:00 라스트오더'], ['목', '18:00 - 00:30', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['- 설전날, 추석전날 휴무']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0507-1330-4489</t>
+          <t>02-525-0911</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>쿠바포차 하바나24시</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 11 2층</t>
+          <t>서울 마포구 양화로1길 42 1층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:40 라스트오더'], ['화', '16:00 - 02:00', '01:40 라스트오더'], ['수', '16:00 - 02:00', '01:40 라스트오더'], ['목', '16:00 - 02:00', '01:40 라스트오더'], ['금', '16:00 - 02:00', '01:40 라스트오더'], ['토', '16:00 - 02:00', '01:40 라스트오더'], ['- 일요일 예약 시 영업 가능']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0507-1333-7118</t>
+          <t>0507-1317-4883</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>405</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:10에 영업 시작', '16시 10분에 영업 시작'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -658,74 +658,74 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>호맥 합정점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>010-9585-7805</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>미나리</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '11:50에 라스트오더', '11시 50분에 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
@@ -742,12 +742,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>366</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -954,49 +954,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>히게쯔라</t>
+          <t>넉탐</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>319</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 42 1층</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0507-1317-4883</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>과일가게</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,66 +1006,66 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 40</t>
+          <t>서울 마포구 양화로1길 42 1층</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02-336-3859</t>
+          <t>0507-1317-4883</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>과일가게</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 마포구 성지3길 23</t>
+          <t>서울 마포구 동교로 40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>010-5567-1637</t>
+          <t>02-336-3859</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>넉탐</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 25</t>
+          <t>서울 마포구 성지3길 23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0507-1345-5640</t>
+          <t>010-5567-1637</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>227</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1176,49 +1176,49 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>색다른한잔</t>
+          <t>형제집</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>303</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>070-4222-4198</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>형제집</t>
+          <t>색다른한잔</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 39 1층 형제집</t>
+          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0507-1489-2230</t>
+          <t>070-4222-4198</t>
         </is>
       </c>
     </row>
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1287,74 +1287,74 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>바람잔</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 40 바람잔</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0507-1397-0113</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>바우리</t>
+          <t>화류 합정점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로3길 17 지하</t>
+          <t>서울 마포구 성지5길 19 1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0507-1319-0813</t>
+          <t>0507-1376-8310</t>
         </is>
       </c>
     </row>
@@ -1398,81 +1398,81 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>슬오라</t>
+          <t>준지의아름다운하루</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 14 1층</t>
+          <t>서울 마포구 독막로 48 2층</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 04:00', '03:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0507-1478-7377</t>
+          <t>02-3144-6760</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>준지의아름다운하루</t>
+          <t>달리</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>349</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 48 2층</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더'], ['일', '18:00 - 04:00', '03:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['토', '11:30 - 04:00']]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02-3144-6760</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>달리</t>
+          <t>슬오라</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,27 +1482,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 86 2층</t>
+          <t>서울 마포구 포은로 14 1층</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '11:30 - 04:00'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0507-1381-4123</t>
+          <t>0507-1478-7377</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1546,111 +1546,111 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>카즈</t>
+          <t>와인동산</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 44</t>
+          <t>서울 마포구 포은로 21 1층 와인동산</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월(7/24)', '휴무'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], [''], ['- 매달 휴무일이 다릅니다! 일정을 확인하고 방문해주세요!']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02-335-1631</t>
+          <t>0507-1366-3589</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>와인동산</t>
+          <t>약수터</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 21 1층 와인동산</t>
+          <t>서울 마포구 독막로2길 12 1층 101호</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월(7/24)', '휴무'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], [''], ['- 매달 휴무일이 다릅니다! 일정을 확인하고 방문해주세요!']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0507-1366-3589</t>
+          <t>0507-1371-6229</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>약수터</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 12 1층 101호</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0507-1371-6229</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '18:00 - 06:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 06:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 06:00'], ['토', '18:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:00에 영업 시작', '11시 0분에 영업 시작'], ['매일', '11:00 - 24:00'], ['생방송투데이 2727회, 20.12.28.', '2020년 12월 28일', ' 타이거새우구이']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['매일', '11:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>265</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '14:00 - 06:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '14:00 - 06:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '14:00 - 06:00'], ['토', '14:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['토', '14:00 - 05:00', '04:30 라스트오더'], ['일', '14:00 - 03:00', '02:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '14:00 - 03:00', '02:30 라스트오더'], ['목', '14:00 - 03:00', '02:30 라스트오더'], ['금', '14:00 - 05:00', '04:30 라스트오더']]</t>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['일', '14:00 - 03:00', '02:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '14:00 - 03:00', '02:30 라스트오더'], ['목', '14:00 - 03:00', '02:30 라스트오더'], ['금', '14:00 - 05:00', '04:30 라스트오더'], ['토', '14:00 - 05:00', '04:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>240</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2027,49 +2027,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>육전면사무소 합정역점</t>
+          <t>파코</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 14 마포 한강 푸르지오 지하1층 115-2호</t>
+          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[['영업 종료', '10:00에 영업 시작', '10시 0분에 영업 시작'], ['매일', '10:00 - 22:00']]</t>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02-332-7688</t>
+          <t>0507-1336-7309</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>파코</t>
+          <t>육전면사무소 합정역점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2079,22 +2079,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
+          <t>서울 마포구 월드컵로1길 14 마포 한강 푸르지오 지하1층 115-2호</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['매일', '10:00 - 22:00']]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0507-1336-7309</t>
+          <t>02-332-7688</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '18:00 - 24:00', '23:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '18:00 - 24:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '20:00 - 04:00'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00']]</t>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00'], ['토', '20:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00', '22:30 라스트오더'], ['수', '16:00 - 23:00', '22:30 라스트오더'], ['목', '16:00 - 23:00', '22:30 라스트오더'], ['금', '16:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00', '22:30 라스트오더'], ['수', '16:00 - 23:00', '22:30 라스트오더'], ['목', '16:00 - 23:00', '22:30 라스트오더'], ['금', '16:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['- 영업 외 시간은 대관 운영되어 변동이 있을수 있습니다.']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['- 영업 외 시간은 대관 운영되어 변동이 있을수 있습니다.']]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['일', '17:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[['영업 종료', 'Dessert 11:30에 영업 시작'], ['일', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['월', 'Dessert 정기휴무 (매주 월요일)', 'Makgeolli 정기휴무 (매주 월요일)'], ['화', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['수', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['목', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['금', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['토', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00']]</t>
+          <t>[['영업 중', 'Dessert 01:00에 영업 종료'], ['일', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['월', 'Dessert 정기휴무 (매주 월요일)', 'Makgeolli 정기휴무 (매주 월요일)'], ['화', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['수', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['목', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['금', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['토', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>655</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[['영업 종료', '13:00에 영업 시작', '13시 0분에 영업 시작'], ['일', '13:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '13:00 - 24:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '13:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '13:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2471,49 +2471,49 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>컴피</t>
+          <t>펍프리바다727</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 32 2층</t>
+          <t>서울 마포구 양화로6길 38 3F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 23:30', '23:00 라스트오더'], ['월', '18:00 - 00:30', '00:00 라스트오더'], ['화', '18:00 - 00:30', '00:00 라스트오더'], ['수', '18:00 - 00:30', '00:00 라스트오더'], ['목', '18:00 - 00:30', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['- 설전날, 추석전날 휴무']]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0507-1330-4489</t>
+          <t>02-525-0911</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>쿠바포차 하바나24시</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 11 2층</t>
+          <t>서울 마포구 양화로1길 42 1층</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:40 라스트오더'], ['화', '16:00 - 02:00', '01:40 라스트오더'], ['수', '16:00 - 02:00', '01:40 라스트오더'], ['목', '16:00 - 02:00', '01:40 라스트오더'], ['금', '16:00 - 02:00', '01:40 라스트오더'], ['토', '16:00 - 02:00', '01:40 라스트오더'], ['- 일요일 예약 시 영업 가능']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0507-1333-7118</t>
+          <t>0507-1317-4883</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>405</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:10에 영업 시작', '16시 10분에 영업 시작'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '16:10 - 01:00', '00:30 라스트오더'], ['월', '17:40 - 01:00', '00:30 라스트오더'], ['화', '17:40 - 01:00', '00:30 라스트오더'], ['수', '17:40 - 01:00', '00:30 라스트오더'], ['목', '17:40 - 01:00', '00:30 라스트오더'], ['금', '17:40 - 02:00', '01:30 라스트오더'], ['토', '16:10 - 02:00', '01:30 라스트오더'], ['- 연중무휴입니다 혹시 가게문이 닫혀있다면 꼭 전화주세요!']]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2656,74 +2656,74 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>호맥 합정점</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>010-9585-7805</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>미나리</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '11:50에 라스트오더', '11시 50분에 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
@@ -2740,12 +2740,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>366</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2952,49 +2952,49 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>히게쯔라</t>
+          <t>넉탐</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>319</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 42 1층</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0507-1317-4883</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>과일가게</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3004,66 +3004,66 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 40</t>
+          <t>서울 마포구 양화로1길 42 1층</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02-336-3859</t>
+          <t>0507-1317-4883</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>호랑이</t>
+          <t>과일가게</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>서울 마포구 성지3길 23</t>
+          <t>서울 마포구 동교로 40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>010-5567-1637</t>
+          <t>02-336-3859</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>넉탐</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로1길 25</t>
+          <t>서울 마포구 성지3길 23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0507-1345-5640</t>
+          <t>010-5567-1637</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>227</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3174,49 +3174,49 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>색다른한잔</t>
+          <t>형제집</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>303</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>070-4222-4198</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>형제집</t>
+          <t>색다른한잔</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 39 1층 형제집</t>
+          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 03:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 03:00', '01:30 라스트오더'], ['수', '18:00 - 03:00', '01:30 라스트오더'], ['목', '18:00 - 03:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '18:00 - 24:00'], ['화', '16:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0507-1489-2230</t>
+          <t>070-4222-4198</t>
         </is>
       </c>
     </row>
@@ -3258,12 +3258,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3285,74 +3285,74 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>바람잔</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 40 바람잔</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0507-1397-0113</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>바우리</t>
+          <t>화류 합정점</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로3길 17 지하</t>
+          <t>서울 마포구 성지5길 19 1층</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0507-1319-0813</t>
+          <t>0507-1376-8310</t>
         </is>
       </c>
     </row>
@@ -3396,81 +3396,81 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>슬오라</t>
+          <t>준지의아름다운하루</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 14 1층</t>
+          <t>서울 마포구 독막로 48 2층</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 04:00', '03:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0507-1478-7377</t>
+          <t>02-3144-6760</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>준지의아름다운하루</t>
+          <t>달리</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>349</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 48 2층</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더'], ['일', '18:00 - 04:00', '03:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['토', '11:30 - 04:00']]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02-3144-6760</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>달리</t>
+          <t>슬오라</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3480,27 +3480,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 86 2층</t>
+          <t>서울 마포구 포은로 14 1층</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '11:30 - 04:00'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0507-1381-4123</t>
+          <t>0507-1478-7377</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3517,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3544,111 +3544,111 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>카즈</t>
+          <t>와인동산</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 44</t>
+          <t>서울 마포구 포은로 21 1층 와인동산</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월(7/24)', '휴무'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], [''], ['- 매달 휴무일이 다릅니다! 일정을 확인하고 방문해주세요!']]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02-335-1631</t>
+          <t>0507-1366-3589</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>와인동산</t>
+          <t>약수터</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 21 1층 와인동산</t>
+          <t>서울 마포구 독막로2길 12 1층 101호</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월(7/24)', '휴무'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], [''], ['- 매달 휴무일이 다릅니다! 일정을 확인하고 방문해주세요!']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0507-1366-3589</t>
+          <t>0507-1371-6229</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>약수터</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 12 1층 101호</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0507-1371-6229</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3702,12 +3702,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '18:00 - 06:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 06:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 06:00'], ['토', '18:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:00에 영업 시작', '11시 0분에 영업 시작'], ['매일', '11:00 - 24:00'], ['생방송투데이 2727회, 20.12.28.', '2020년 12월 28일', ' 타이거새우구이']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['매일', '11:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>265</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['토', '14:00 - 06:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '14:00 - 06:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '14:00 - 06:00'], ['토', '14:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['토', '14:00 - 05:00', '04:30 라스트오더'], ['일', '14:00 - 03:00', '02:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '14:00 - 03:00', '02:30 라스트오더'], ['목', '14:00 - 03:00', '02:30 라스트오더'], ['금', '14:00 - 05:00', '04:30 라스트오더']]</t>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['일', '14:00 - 03:00', '02:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '14:00 - 03:00', '02:30 라스트오더'], ['목', '14:00 - 03:00', '02:30 라스트오더'], ['금', '14:00 - 05:00', '04:30 라스트오더'], ['토', '14:00 - 05:00', '04:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>240</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 마감시간은 매장 상황에 따라 유동적일 수 있습니다.']]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4025,49 +4025,49 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>육전면사무소 합정역점</t>
+          <t>파코</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로1길 14 마포 한강 푸르지오 지하1층 115-2호</t>
+          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[['영업 종료', '10:00에 영업 시작', '10시 0분에 영업 시작'], ['매일', '10:00 - 22:00']]</t>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02-332-7688</t>
+          <t>0507-1336-7309</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>파코</t>
+          <t>육전면사무소 합정역점</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
+          <t>서울 마포구 월드컵로1길 14 마포 한강 푸르지오 지하1층 115-2호</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['매일', '10:00 - 22:00']]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0507-1336-7309</t>
+          <t>02-332-7688</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 내추럴와인 픽업 할인 / 20% off']]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '18:00 - 24:00', '23:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '18:00 - 24:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '20:00 - 04:00'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00']]</t>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['일', '20:00 - 04:00'], ['월', '20:00 - 04:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '20:00 - 04:00'], ['목', '20:00 - 04:00'], ['금', '20:00 - 04:00'], ['토', '20:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00', '22:30 라스트오더'], ['수', '16:00 - 23:00', '22:30 라스트오더'], ['목', '16:00 - 23:00', '22:30 라스트오더'], ['금', '16:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00', '22:30 라스트오더'], ['수', '16:00 - 23:00', '22:30 라스트오더'], ['목', '16:00 - 23:00', '22:30 라스트오더'], ['금', '16:00 - 23:00', '22:30 라스트오더'], ['토', '12:00 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['- 영업 외 시간은 대관 운영되어 변동이 있을수 있습니다.']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['- 영업 외 시간은 대관 운영되어 변동이 있을수 있습니다.']]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['일', '17:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[['영업 종료', 'Dessert 11:30에 영업 시작'], ['일', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['월', 'Dessert 정기휴무 (매주 월요일)', 'Makgeolli 정기휴무 (매주 월요일)'], ['화', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['수', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['목', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['금', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['토', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00']]</t>
+          <t>[['영업 중', 'Dessert 01:00에 영업 종료'], ['일', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['월', 'Dessert 정기휴무 (매주 월요일)', 'Makgeolli 정기휴무 (매주 월요일)'], ['화', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['수', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['목', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['금', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00'], ['토', 'Dessert 11:30 - 01:00', 'Makgeolli 17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4368,12 +4368,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>655</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['- 연중무휴로 운영되고 있습니다']]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[['영업 종료', '13:00에 영업 시작', '13시 0분에 영업 시작'], ['일', '13:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '13:00 - 24:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '13:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '13:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4442,12 +4442,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,12 +4457,5562 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>02-6396-3646</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>델리카테슨</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 19 1층</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '11:30 - 23:00', '16:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '11:30 - 23:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '11:30 - 23:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['목', '11:30 - 23:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['금', '11:30 - 23:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['토', '11:30 - 23:00', '16:00 - 17:00 브레이크타임', '21:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0507-1444-3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>한길비스트로</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 13 A동 2층</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '12:00 - 01:00', '15:00 - 17:00 브레이크타임', '23:30 라스트오더'], ['월', '17:00 - 01:00', '23:30 라스트오더'], ['화', '17:00 - 01:00', '23:30 라스트오더'], ['수', '17:00 - 01:00', '23:30 라스트오더'], ['목', '17:00 - 01:00', '23:30 라스트오더'], ['금', '17:00 - 02:00', '00:30 라스트오더'], ['토', '12:00 - 02:00', '15:00 - 17:00 브레이크타임', '00:30 라스트오더'], ['- 6월부터 정기휴무 없이 운영합니다.']]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0507-1323-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>카에루</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 31 우진빌딩</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>02-325-5103</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>트릴로지</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>서울 마포구 희우정로 19 지층</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0507-1367-0846</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>네즈</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 1층 네즈</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '16:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '16:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0507-1343-1175</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>문학살롱 초고</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로2길 30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '16:00 - 24:00', '23:30 라스트오더'], ['월', '16:00 - 24:00', '23:30 라스트오더'], ['화', '16:00 - 24:00', '23:30 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '16:00 - 24:00', '23:30 라스트오더'], ['금', '16:00 - 24:00', '23:30 라스트오더'], ['토', '16:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>02-332-7579</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>오프모먼트</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 오프모먼트</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>010-9416-7634</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>꺼꾸잽이 초장집 합정점</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 1층</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '16:00 - 24:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0507-1366-9685</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>히포</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로8길 5 지층</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 22:00', '21:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 22:30', '21:30 라스트오더'], ['목', '18:00 - 22:30', '21:30 라스트오더'], ['금', '18:00 - 22:30', '21:30 라스트오더'], ['토', '17:30 - 22:00', '21:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>010-3220-1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>피공일</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 1층</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0507-1419-3668</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>철스뮤직</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 39 2층</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>02-322-1247</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Little Cave</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로4길 9 1층</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '12:00 - 15:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '12:00 - 24:00'], ['- Last Order. 22:00']]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0507-1409-2037</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>믹스쳐</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 18 1층</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[['영업 중', '21:00에 라스트오더', '21시 0분에 라스트오더'], ['일', '12:00 - 22:00', '21:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00', '22:00 라스트오더'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '12:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0507-1360-6475</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>비앤비</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 6 지하</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>02-722-1254</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>오티디 서울</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 25 1층</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0507-1498-9016</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>그럼</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로7길 6 1층</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더'], ['- 특별한 경우 네이버 안내와 인스타 안내 올려두겠습니다!']]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0507-1368-1707</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>한송이꽃이</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 72 2층</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더'], ['- 매주 월요일 휴무입니다.']]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0507-1320-5202</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>르파르</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 덕양빌딩 1층 르파르</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00', '01:30 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0507-1428-7887</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>주문합정</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27-1 성우맨션 1.5층</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>010-8286-2494</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>타테이와</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-6 201호</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0507-1390-6163</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>LP 메모리</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 27 2층</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00'], ['- 일요일 휴무.예약시영업']]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>070-7622-4823</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 합정역점</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 6</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '16:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['- 와인 및 매뉴포장과 배달도 가능해요.']]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0507-1313-2483</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>논베</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-26 1층</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '23:30 라스트오더'], ['월', '18:00 - 01:00', '23:30 라스트오더'], ['화(7/25)', '휴무'], ['수', '18:00 - 01:00', '23:30 라스트오더'], ['목', '18:00 - 01:00', '23:30 라스트오더'], ['금', '18:00 - 01:00', '23:30 라스트오더'], ['토', '18:00 - 01:00', '23:30 라스트오더'], [''], ['- 유동적 휴무가 있을 수 있으니 인스타 확인 부탁드립니다']]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0507-1322-3126</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>리슨</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 7 삼성빌딩 1층</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>02-322-2436</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>쿠바포차 하바나24시</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 11 2층</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:40 라스트오더'], ['화', '16:00 - 02:00', '01:40 라스트오더'], ['수', '16:00 - 02:00', '01:40 라스트오더'], ['목', '16:00 - 02:00', '01:40 라스트오더'], ['금', '16:00 - 02:00', '01:40 라스트오더'], ['토', '16:00 - 02:00', '01:40 라스트오더'], ['- 일요일 예약 시 영업 가능']]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0507-1333-7118</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>펍트라이브</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 7</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>02-323-8440</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>바람잔</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 40 바람잔</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/23 휴무', '07/23 휴무'], ['일(7/23)', '휴무'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0507-1397-0113</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>브루브루</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 50</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '15:00 - 23:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0507-1345-3359</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>마카로니펑키클럽</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32 통화보다 문자 메세지 주시면 빠르게 회신해 드려요..</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:30에 영업 시작', '19시 30분에 영업 시작'], ['일', '19:30 - 02:00'], ['월', '19:30 - 02:00'], ['화', '19:30 - 02:00'], ['수', '19:30 - 02:00'], ['목', '19:30 - 02:00'], ['금', '19:00 - 04:00'], ['토', '19:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>010-4861-4820</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>맹금류</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27-1 지1층 101호</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 06:00', '05:50 라스트오더'], ['- 매월 첫째 주 일요일 쉽니다.']]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0507-1436-5507</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>블루스 하우스</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 42-1 2층 BLUES HOUSE</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>02-332-2408</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>도쿠로야</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 56-1</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00', '01:30 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0507-1416-5442</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>화류 합정점</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지5길 19 1층</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0507-1376-8310</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>고봉이네</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 38 1층</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:10 - 24:00'], ['화', '18:10 - 24:00'], ['수', '18:10 - 24:00'], ['목', '18:10 - 24:00'], ['금', '18:10 - 24:00'], ['토', '18:10 - 24:00'], ['- 일요일 휴무. 포장배달 배민:1인분생고기김치찌개아침오픈']]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0507-1358-9050</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>펍프리바다727</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 3F</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 23:30', '23:00 라스트오더'], ['월', '18:00 - 00:30', '00:00 라스트오더'], ['화', '18:00 - 00:30', '00:00 라스트오더'], ['수', '18:00 - 00:30', '00:00 라스트오더'], ['목', '18:00 - 00:30', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['- 설전날, 추석전날 휴무']]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>02-525-0911</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>마이드링크뮤지엄</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지3길 61 B1F</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 23:00', '22:30 라스트오더'], ['수', '17:00 - 23:00', '22:30 라스트오더'], ['목', '17:00 - 23:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '23:30 라스트오더'], ['토', '17:00 - 24:00', '23:30 라스트오더'], ['- 23시이후 조기마감 할수있으니 방문전 확인해주세요 :)']]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>070-8287-1707</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>만평</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 (합정동) 2층</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:30에 영업 시작', '19시 30분에 영업 시작'], ['일', '19:30 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '19:30 - 01:00', '00:30 라스트오더'], ['목', '19:30 - 01:00', '00:30 라스트오더'], ['금', '19:30 - 02:00', '01:30 라스트오더'], ['토', '19:30 - 02:00', '01:30 라스트오더'], ['- 월요일 화요일 쉽니다.']]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>02-0104-7559</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Vinyl Music</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 2층</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0507-1418-0105</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>퓨전선술집</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 7</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:30 - 01:00'], ['화', '18:30 - 01:00'], ['수', '18:30 - 01:00'], ['목', '18:30 - 01:00'], ['금', '18:30 - 01:00'], ['토', '18:30 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>02-335-4764</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>생활맥주 합정동점</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 28 1층</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00'], ['- 명절 전날 휴무, 명절 당일은 유동적 휴무']]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>02-335-5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>마디포차</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 37 마디포차</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0507-1342-6826</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>럭키스트라이크</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 7 1층</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 02:00'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 04:00'], ['토', '19:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0507-1306-6213</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>가제트술집 합정본점</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 5 합정아파트</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 영업 종료', '0시 30분에 영업 종료'], ['일', '17:30 - 00:30'], ['월', '17:00 - 01:30'], ['화', '17:00 - 01:30'], ['수', '17:00 - 01:30'], ['목', '17:00 - 01:30'], ['금', '17:00 - 01:30'], ['토', '17:00 - 01:30']]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>02-336-8865</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>향락</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 지하1층</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 04:00', '03:45 라스트오더'], ['월', '20:00 - 04:00', '03:45 라스트오더'], ['화', '20:00 - 04:00', '03:45 라스트오더'], ['수', '20:00 - 04:00', '03:45 라스트오더'], ['목', '20:00 - 04:00', '03:45 라스트오더'], ['금', '19:00 - 04:00', '03:45 라스트오더'], ['토', '19:00 - 04:00', '03:45 라스트오더'], ['- 손님이 안 계시면 새벽 3시에 닫습니다.']]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>010-2445-5364</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>시퀀스</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25 1층</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 00:30', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 01:30', '01:00 라스트오더'], ['수', '19:00 - 01:30', '01:00 라스트오더'], ['목', '19:00 - 01:30', '01:00 라스트오더'], ['금', '19:00 - 03:30', '03:00 라스트오더'], ['토', '18:00 - 03:30', '03:00 라스트오더'], ['- 6/5일 월요일 정상영업합니다!!']]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0507-1382-9808</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>LO.ONE highball</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-30</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '17:00 - 00:30'], ['화', '17:00 - 00:30'], ['수', '17:00 - 00:30'], ['목', '17:00 - 00:30'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0507-1440-5153</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>호수꼬치 홍대합정점</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55 1층</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '17:30 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0507-1466-5551</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>펀비어킹 마포 메세나폴리스점</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 10</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>02-338-8253</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>펄포즈89</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27-1 1층</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0507-1377-0327</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>투다리 합정점</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 5</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>02-333-9725</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>오스테리아칠</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지3길 19 102호</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '16:00 - 24:00'], ['월', '16:00 - 24:00'], ['화', '16:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0507-1405-1831</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>서울무지개호프합정점</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로2가길 65</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>자색휴일</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32 1층</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:30 - 24:00'], ['수', '18:30 - 24:00'], ['목', '18:30 - 24:00'], ['금', '18:30 - 02:00'], ['토', '18:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>02-6813-9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>대박노가리</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 45</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 01:00'], ['화', '17:30 - 01:00'], ['수', '17:30 - 01:00'], ['목', '17:30 - 01:00'], ['금', '17:30 - 01:00'], ['토', '정보없음']]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>070-8238-6160</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>두놈포차</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 18 B동 2층</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0507-1359-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>달의다락</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 8</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>02-1232-1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Vineworks Korea</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 6 7층</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>02-2038-2220</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>시샤스테이</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 48 2층 202호</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0507-1376-4668</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>포차 프리</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 37-1 2층</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 01:00'], ['화', '16:00 - 01:00'], ['수', '16:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0507-1413-0928</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>바울프</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>010-5219-5453</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Non mainstreamers</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 54</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '20:00 - 01:00', '00:30 라스트오더'], ['수', '20:00 - 01:00', '00:30 라스트오더'], ['목', '20:00 - 01:00', '00:30 라스트오더'], ['금', '20:00 - 01:00', '00:30 라스트오더'], ['토', '20:00 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0507-1339-9607</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>루퍼 라운지</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 28 1층</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '13:00 - 24:00'], ['화', '13:00 - 24:00'], ['수', '13:00 - 24:00'], ['목', '13:00 - 24:00'], ['금', '13:00 - 24:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0507-1416-0527</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>인디고 바</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 3 삼성3빌딩 B1</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '20:00 - 02:00'], ['화', '20:00 - 02:00'], ['수', '20:00 - 02:00'], ['목', '20:00 - 02:00'], ['금', '20:00 - 02:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>02-322-4138</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>오비베어 합정점</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 35</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>010-7631-7417</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DAWN</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 25 지층</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>010-2307-9493</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>빙하</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 11 1층 104호</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0507-1411-0806</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>샹젤리제</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55 1동</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '12:00 - 22:00'], ['화', '12:00 - 22:00'], ['수', '12:00 - 22:00'], ['목', '12:00 - 22:00'], ['금', '12:00 - 22:00'], ['토', '12:00 - 22:00']]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0507-1489-2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>도화몽</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 53 1층 101호</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '17:00 - 05:00', '04:00 라스트오더'], ['토', '17:00 - 05:00', '04:00 라스트오더'], ['- 7월 4일 금일은 임시 휴무일 입니다. 내일 만나요~']]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>02-324-1331</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>루나</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 90 2층</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0507-1322-9924</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>구름공방 합정역점</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 8 2층</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '15:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>02-335-4679</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>포차 5 3 0</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 10 2층</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['일', '17:00 - 23:00', '22:30 라스트오더'], ['월', '17:00 - 23:50', '23:20 라스트오더'], ['화', '17:00 - 23:50', '23:20 라스트오더'], ['수', '17:00 - 23:50', '23:20 라스트오더'], ['목', '17:00 - 23:50', '23:20 라스트오더'], ['금', '17:00 - 23:50', '23:20 라스트오더'], ['토', '17:00 - 23:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>070-8780-3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>오드키치맨션</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 8 지하1층</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:30에 영업 시작', '19시 30분에 영업 시작'], ['일', '19:30 - 02:00'], ['월', '19:30 - 02:00'], ['화', '19:30 - 02:00'], ['수', '19:30 - 02:00'], ['목', '19:30 - 02:00'], ['금', '19:30 - 03:00'], ['토', '19:30 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0507-1423-1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>카우카우펍 합정점</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 10</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>02-325-5353</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>오쿠보이자카야</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-8 1.5층 오쿠보이자카야</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0507-1380-3555</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>번가</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>유흥주점</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지3길 69 지하1층</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 21:00']]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0507-1353-1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>삐친노가리</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>02-333-8292</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>인</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 39 1층 빨간지붕 펍자까야”인”</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 03:00'], ['- 코로나격상으로인한 조정시간입니다']]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0507-1414-0050</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>바다와농부</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-4</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>OB베어</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>노가리의숲</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 48</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>offmoment</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>샤이닝스타</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 15 1층</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '12:00 - 02:00'], ['월', '10:00 - 02:00'], ['화', '10:00 - 02:00'], ['수', '10:00 - 02:00'], ['목', '10:00 - 02:00'], ['금', '10:00 - 02:00'], ['토', '12:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>02-3141-0150</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>AMERICAN WHISKEY BAR</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>88 홀리데이</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>오마이핀초</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층 101호</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0507-1478-3360</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>이자카야준꼬</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 12 이자카야준꼬</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>한강</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 2</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>02-334-5633</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>아초</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>02-332-4637</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>전야제</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>바샤인II</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-6</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>에너지</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 43-1 에너지</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>줍</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 40</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>에드워드포차</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 합정동K빌딩</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>02-6378-6545</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>워레버유고</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>배터리88 홍대점</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로19길 6 1층</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '17:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0507-1487-0883</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>발리 슈퍼스토어</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 45 2층</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '13:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '13:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>02-323-7871</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>서교주담 합정</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>010-5656-9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>청화접</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 268 지하1층 청화접</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0507-1333-6580</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>배터리88 2호점 홍대입구역점</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 134 1층</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0507-1371-9555</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>맥주왕명주</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['매일', '17:30 - 04:00', '03:30 라스트오더'], ['- 연중무휴!']]</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0507-1332-9305</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>붉은낙타</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>070-4833-5965</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>소주방</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0507-1351-0896</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>꼬요식당</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 275-1 꼬요식당</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0507-1410-8917</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>훈민정음 서울합정점</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 21</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '17:00 - 02:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>02-336-1447</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>쿠시노주방</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>010-7245-0503</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>당인리극장</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00', '01:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 04:00', '03:00 라스트오더'], ['토', '18:00 - 04:00', '03:00 라스트오더'], ['- 법정 공휴일 전날은 영업 합니다']]</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>070-4065-6602</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>술로름</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로21길 33 B1</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '16:00 - 01:00', '00:00 라스트오더'], ['월', '16:00 - 01:00', '00:00 라스트오더'], ['화', '16:00 - 01:00', '00:00 라스트오더'], ['수', '16:00 - 01:00', '00:00 라스트오더'], ['목', '16:00 - 01:00', '00:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0507-1397-3412</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>전주상회</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 195 106호</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['매일', '17:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0507-1397-9777</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>상수주택</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로15길 19 2층 상수주택</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '15:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0507-1313-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>연주방</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['- 휴무는 따로 공지 할게요']]</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>010-4346-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>연술집</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '15:00 - 24:00'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00'], ['- 4/20 휴무입니다.']]</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0507-1358-3675</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>홍대공감</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로17길 10 2F</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00'], ['- 정부 방역지침으로 인한 영업시간 조정']]</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0507-1319-1675</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>무채색</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 19 3층</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0507-1354-4046</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>락소울윙</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로21길 26 2층</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0507-1376-4268</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>참새방앗간</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로52길 8</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>02-2675-1199</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>홍콩포차</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>서울 마포구 홍익로3길 44 2층</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '16:00 - 06:00']]</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0507-1335-4002</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>양화포차</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>서울 영등포구 선유로52길 14-1 2층</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0507-1359-2521</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>이제</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-3 미소빌딩 1층</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[['영업 중', '21:50에 라스트오더', '21시 50분에 라스트오더'], ['일', '17:00 - 22:50', '21:50 라스트오더'], ['월', '17:00 - 22:50', '21:50 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 22:50', '21:50 라스트오더'], ['목', '17:00 - 22:50', '21:50 라스트오더'], ['금', '17:00 - 23:50', '22:50 라스트오더'], ['토', '17:00 - 23:50', '22:50 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0507-1414-1599</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>미식가주택</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로 15-5 1층</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0507-1329-9808</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>주무대</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>서교주담 망원</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 82 1층</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>010-2633-7974</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>동동포차DDPC</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 30 1층</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>02-336-0358</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>심야식당밤</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0507-1383-3321</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>지하102호 1호점</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0507-1308-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>조선시대</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1511</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '17:30 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0507-1478-1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>모모</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 242-6</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '17:00 - 02:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0507-1369-9781</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>계담다</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0507-1321-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>가로수포차</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '17:00 - 02:30']]</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>010-7357-2551</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>너랑나랑호프</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 61</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:30 - 02:00'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>010-4422-5157</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>몽주방</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 20 1층</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '16:00 - 02:30']]</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0507-1364-7875</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>당산의밤</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로 233 홍익빌딩1층</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 재료소진시 조기마감합니다']]</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>02-2069-0585</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>사카바 토리야</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 38 2층</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요']]</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0507-1353-4741</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>정주일가</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 66 1층 정주일가</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0507-1396-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>심야식당하스</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 19</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '16:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>070-8888-0198</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>비등점</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 22 1층</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0507-1367-3488</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>금호동매운닭발</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0507-1461-7630</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>시실리</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 198</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0507-1309-8117</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>미자카야</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5 1층</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0507-1362-7637</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>복덕방내추럴막걸리집</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>070-8864-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>슈퍼룸방구</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로21길 31 2층</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00', '09:00 - 16:00 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>010-4269-3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>우규</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>0507-1448-3465</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>개화기요정</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>1507</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 22 개화기요정</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[['일요일 17:00 - 02:00'], ['월요일 17:00 - 02:00'], ['화요일 17:00 - 02:00'], ['수요일 17:00 - 02:00'], ['목요일 17:00 - 02:00'], ['금요일 17:00 - 03:00'], ['토요일 17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>02-325-6677</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>몽주막</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0507-1353-3844</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>쏘슐랭</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 9 상가1층</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['매일', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>0507-1397-8483</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>당산곶</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로51길 1 1층</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>02-2677-5110</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>주섬주섬</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로21길 36-12</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '16:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00'], ['수', '16:00 - 23:00'], ['목', '16:00 - 23:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['- 월요일 휴무입니다']]</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>0507-1325-5230</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>쿠시파파</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-4 지층 쿠시파파</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>0507-1323-3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>술생술사</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 51 술생술사</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- *5월 1일, 5월 5일 정상 영업합니다.']]</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>웅장</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 73 1층</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>0507-1308-6389</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>이주방</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로 33 2층</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>0507-1373-3618</t>
         </is>
       </c>
     </row>
